--- a/Anforderungen/Anforderungen.xlsx
+++ b/Anforderungen/Anforderungen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\Documents\Mikrocomputertechnik\CO2Messer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\Documents\DHBW\Mikrocomputertechnik\CO2Messer\MC_Projekt\Anforderungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA2F539-0649-48CA-84EA-300566759CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036CE1BF-06B4-4C80-909C-4851426D3D26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2504784F-D387-4BEC-B9D6-55A8DFAB6B98}"/>
   </bookViews>
@@ -105,13 +105,13 @@
 Luftgüte (Ausgabe LCD)</t>
   </si>
   <si>
-    <t>Benutzer kann Messprofile auswählen (Messprofil: Abtastrate, Grenzwerte)</t>
-  </si>
-  <si>
     <t>Externe Abfrage über USB-Schnittstelle</t>
   </si>
   <si>
     <t>Speichern im CSV-Format</t>
+  </si>
+  <si>
+    <t>Benutzer kann zwischen drei Messprofilen auswählen (Messprofil: Abtastrate)</t>
   </si>
 </sst>
 </file>
@@ -135,12 +135,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -221,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -270,6 +276,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -589,7 +601,7 @@
   <dimension ref="C2:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +635,7 @@
       <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -647,9 +659,9 @@
         <v>3</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -675,7 +687,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>10</v>
@@ -689,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>6</v>

--- a/Anforderungen/Anforderungen.xlsx
+++ b/Anforderungen/Anforderungen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\Documents\DHBW\Mikrocomputertechnik\CO2Messer\MC_Projekt\Anforderungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036CE1BF-06B4-4C80-909C-4851426D3D26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940C4F00-B56D-4B62-8E51-9BBAEEC1256B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2504784F-D387-4BEC-B9D6-55A8DFAB6B98}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Nummer</t>
   </si>
@@ -70,10 +70,6 @@
 scheibenmotors mithilfe einer LED simulieren</t>
   </si>
   <si>
-    <t>Bei guter Luftgüte nach "Lüften":
-Fenster schließt sich (LED aus)</t>
-  </si>
-  <si>
     <t>Bei schlechter Luftgüte:
 Fenster öffnet sich (LED an)</t>
   </si>
@@ -101,17 +97,17 @@
     <t>Mindestmessbereich von 300 ppm bis 3000 ppm</t>
   </si>
   <si>
+    <t>Externe Abfrage über USB-Schnittstelle</t>
+  </si>
+  <si>
+    <t>Speichern im CSV-Format</t>
+  </si>
+  <si>
+    <t>Benutzer kann zwischen drei Messprofilen auswählen (Messprofil: Abtastrate)</t>
+  </si>
+  <si>
     <t>Echtzeitmessung der
-Luftgüte (Ausgabe LCD)</t>
-  </si>
-  <si>
-    <t>Externe Abfrage über USB-Schnittstelle</t>
-  </si>
-  <si>
-    <t>Speichern im CSV-Format</t>
-  </si>
-  <si>
-    <t>Benutzer kann zwischen drei Messprofilen auswählen (Messprofil: Abtastrate)</t>
+Luftgüte</t>
   </si>
 </sst>
 </file>
@@ -227,60 +223,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -598,206 +585,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3C3398-EF8F-4288-94C6-4F6749570231}">
-  <dimension ref="C2:J19"/>
+  <dimension ref="C2:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
     <col min="10" max="10" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="3:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="6">
+    <row r="4" spans="3:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="14">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>6</v>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="3:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="6">
+      <c r="C5" s="14">
         <v>2</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="15">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="3:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="20">
+      <c r="E6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" spans="3:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="6">
+      <c r="C7" s="14">
         <v>4</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C8" s="15">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="14">
+        <v>6</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="15">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="14">
+        <v>8</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="20">
-        <v>5</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="6">
-        <v>6</v>
-      </c>
-      <c r="D9" s="10" t="s">
+    </row>
+    <row r="12" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="15">
+        <v>9</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C13" s="14">
+        <v>10</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C10" s="20">
-        <v>7</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C11" s="6">
-        <v>8</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="E13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="20">
-        <v>9</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="6">
-        <v>10</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13" t="s">
+    </row>
+    <row r="14" spans="3:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="J14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="16"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="J14" s="12" t="s">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="11"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="J15" s="12" t="s">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="11"/>
-      <c r="E16" s="9"/>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="11"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="11"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="11"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Anforderungen/Anforderungen.xlsx
+++ b/Anforderungen/Anforderungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\Documents\DHBW\Mikrocomputertechnik\CO2Messer\MC_Projekt\Anforderungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940C4F00-B56D-4B62-8E51-9BBAEEC1256B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC795474-D6FE-45F7-BC38-60E8B61E5BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2504784F-D387-4BEC-B9D6-55A8DFAB6B98}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Nummer</t>
   </si>
@@ -108,6 +108,10 @@
   <si>
     <t>Echtzeitmessung der
 Luftgüte</t>
+  </si>
+  <si>
+    <t>Bei guter Luftgüte:
+Fenster schließt sich (LED aus)</t>
   </si>
 </sst>
 </file>
@@ -588,7 +592,7 @@
   <dimension ref="C2:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +708,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>6</v>

--- a/Anforderungen/Anforderungen.xlsx
+++ b/Anforderungen/Anforderungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\Documents\DHBW\Mikrocomputertechnik\CO2Messer\MC_Projekt\Anforderungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC795474-D6FE-45F7-BC38-60E8B61E5BCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B00AD7F-7840-4F9C-BCAE-CD1B1F3158E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2504784F-D387-4BEC-B9D6-55A8DFAB6B98}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Nummer</t>
   </si>
   <si>
-    <t>Simila</t>
-  </si>
-  <si>
     <t>Insparity</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   <si>
     <t>Bei guter Luftgüte:
 Fenster schließt sich (LED aus)</t>
+  </si>
+  <si>
+    <t>Similarity</t>
   </si>
 </sst>
 </file>
@@ -592,7 +592,7 @@
   <dimension ref="C2:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,13 +610,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -624,13 +624,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="3:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -638,13 +638,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="3:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -652,13 +652,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="3:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -666,13 +666,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="3:10" ht="45" x14ac:dyDescent="0.25">
@@ -680,13 +680,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="3:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -694,13 +694,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -708,10 +708,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" s="10"/>
     </row>
@@ -720,10 +720,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -731,10 +731,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="45" x14ac:dyDescent="0.25">
@@ -742,14 +742,14 @@
         <v>10</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -757,17 +757,17 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="J14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="J15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
